--- a/Code/Results/Cases/Case_4_117/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_117/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011007125823449</v>
+        <v>1.037267621666352</v>
       </c>
       <c r="D2">
-        <v>1.02781078055819</v>
+        <v>1.041567248677424</v>
       </c>
       <c r="E2">
-        <v>1.019110217977471</v>
+        <v>1.040917735927591</v>
       </c>
       <c r="F2">
-        <v>1.016868517900089</v>
+        <v>1.047099851320691</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050127390229054</v>
+        <v>1.041759102693556</v>
       </c>
       <c r="J2">
-        <v>1.032863526985526</v>
+        <v>1.042371420824399</v>
       </c>
       <c r="K2">
-        <v>1.038895800483312</v>
+        <v>1.04434639827114</v>
       </c>
       <c r="L2">
-        <v>1.030309585404955</v>
+        <v>1.043698724709446</v>
       </c>
       <c r="M2">
-        <v>1.028097745062346</v>
+        <v>1.049863434889588</v>
       </c>
       <c r="N2">
-        <v>1.034330311664947</v>
+        <v>1.043851707803643</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015912637597296</v>
+        <v>1.038273741405853</v>
       </c>
       <c r="D3">
-        <v>1.031600895808833</v>
+        <v>1.042356710996973</v>
       </c>
       <c r="E3">
-        <v>1.023520750007425</v>
+        <v>1.041872374193163</v>
       </c>
       <c r="F3">
-        <v>1.022606943490167</v>
+        <v>1.04835217711232</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052082071684096</v>
+        <v>1.04208999153714</v>
       </c>
       <c r="J3">
-        <v>1.035978711462758</v>
+        <v>1.043021564316282</v>
       </c>
       <c r="K3">
-        <v>1.041844793770718</v>
+        <v>1.044946570257686</v>
       </c>
       <c r="L3">
-        <v>1.033861270062183</v>
+        <v>1.044463505605055</v>
       </c>
       <c r="M3">
-        <v>1.032958510148491</v>
+        <v>1.050926393851624</v>
       </c>
       <c r="N3">
-        <v>1.037449920061454</v>
+        <v>1.044502774573857</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019015677439627</v>
+        <v>1.038924809497708</v>
       </c>
       <c r="D4">
-        <v>1.034000322687086</v>
+        <v>1.042867503925206</v>
       </c>
       <c r="E4">
-        <v>1.026315716531767</v>
+        <v>1.042490473463431</v>
       </c>
       <c r="F4">
-        <v>1.026238897194548</v>
+        <v>1.049162899242599</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053307665324449</v>
+        <v>1.042302795913146</v>
       </c>
       <c r="J4">
-        <v>1.037945158444989</v>
+        <v>1.043441700525213</v>
       </c>
       <c r="K4">
-        <v>1.043705006629845</v>
+        <v>1.04533422457347</v>
       </c>
       <c r="L4">
-        <v>1.036106578916587</v>
+        <v>1.044958134474317</v>
       </c>
       <c r="M4">
-        <v>1.036030629093898</v>
+        <v>1.051614025815972</v>
       </c>
       <c r="N4">
-        <v>1.039419159623955</v>
+        <v>1.044923507424394</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.02030382967094</v>
+        <v>1.039198528522738</v>
       </c>
       <c r="D5">
-        <v>1.034996803959329</v>
+        <v>1.043082230735498</v>
       </c>
       <c r="E5">
-        <v>1.027477151259256</v>
+        <v>1.042750414120897</v>
       </c>
       <c r="F5">
-        <v>1.027747154964115</v>
+        <v>1.049503819679426</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053813800911594</v>
+        <v>1.042391946892639</v>
       </c>
       <c r="J5">
-        <v>1.038760468147611</v>
+        <v>1.043618193947927</v>
       </c>
       <c r="K5">
-        <v>1.044475943080045</v>
+        <v>1.045497027336548</v>
       </c>
       <c r="L5">
-        <v>1.037038307900203</v>
+        <v>1.04516601985664</v>
       </c>
       <c r="M5">
-        <v>1.037305341131004</v>
+        <v>1.051903065519271</v>
       </c>
       <c r="N5">
-        <v>1.040235627159871</v>
+        <v>1.045100251488012</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020519175145016</v>
+        <v>1.039244487740846</v>
       </c>
       <c r="D6">
-        <v>1.035163412764091</v>
+        <v>1.043118283679765</v>
       </c>
       <c r="E6">
-        <v>1.027671380751037</v>
+        <v>1.04279406467054</v>
       </c>
       <c r="F6">
-        <v>1.027999329456864</v>
+        <v>1.049561067195558</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05389825740781</v>
+        <v>1.042406897437425</v>
       </c>
       <c r="J6">
-        <v>1.038896706250562</v>
+        <v>1.043647820234926</v>
       </c>
       <c r="K6">
-        <v>1.044604746901782</v>
+        <v>1.045524352830787</v>
       </c>
       <c r="L6">
-        <v>1.037194046787987</v>
+        <v>1.045200921402188</v>
       </c>
       <c r="M6">
-        <v>1.037518404890321</v>
+        <v>1.051951594188922</v>
       </c>
       <c r="N6">
-        <v>1.040372058736556</v>
+        <v>1.045129919847738</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019032953241282</v>
+        <v>1.038928466905292</v>
       </c>
       <c r="D7">
-        <v>1.034013685216666</v>
+        <v>1.042870373157369</v>
       </c>
       <c r="E7">
-        <v>1.026331288301612</v>
+        <v>1.042493946443204</v>
       </c>
       <c r="F7">
-        <v>1.02625912270271</v>
+        <v>1.049167454272027</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053314463740413</v>
+        <v>1.042303988378863</v>
       </c>
       <c r="J7">
-        <v>1.037956096855047</v>
+        <v>1.043444059357183</v>
       </c>
       <c r="K7">
-        <v>1.043715351023436</v>
+        <v>1.045336400608875</v>
       </c>
       <c r="L7">
-        <v>1.036119076070271</v>
+        <v>1.044960912471613</v>
       </c>
       <c r="M7">
-        <v>1.036047727002713</v>
+        <v>1.051617888137871</v>
       </c>
       <c r="N7">
-        <v>1.03943011356781</v>
+        <v>1.044925869606177</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012680114435051</v>
+        <v>1.037607636043433</v>
       </c>
       <c r="D8">
-        <v>1.029102932178583</v>
+        <v>1.041834059565744</v>
       </c>
       <c r="E8">
-        <v>1.020613318338034</v>
+        <v>1.04124028059802</v>
       </c>
       <c r="F8">
-        <v>1.018825167310166</v>
+        <v>1.047523001869569</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050796280437333</v>
+        <v>1.041871197839424</v>
       </c>
       <c r="J8">
-        <v>1.03392678026446</v>
+        <v>1.04259125367808</v>
       </c>
       <c r="K8">
-        <v>1.039902603858202</v>
+        <v>1.044549373405865</v>
       </c>
       <c r="L8">
-        <v>1.031521124762371</v>
+        <v>1.043957234629909</v>
       </c>
       <c r="M8">
-        <v>1.02975603738999</v>
+        <v>1.050222703251344</v>
       </c>
       <c r="N8">
-        <v>1.035395074885495</v>
+        <v>1.044071852845191</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000908514435677</v>
+        <v>1.035280474948871</v>
       </c>
       <c r="D9">
-        <v>1.020021438853258</v>
+        <v>1.040007642124744</v>
       </c>
       <c r="E9">
-        <v>1.010060110139017</v>
+        <v>1.039034119551986</v>
       </c>
       <c r="F9">
-        <v>1.005064183124375</v>
+        <v>1.044628158790846</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046044899112786</v>
+        <v>1.041098590755479</v>
       </c>
       <c r="J9">
-        <v>1.026429231456645</v>
+        <v>1.04108429392576</v>
       </c>
       <c r="K9">
-        <v>1.032797824190794</v>
+        <v>1.043157201643976</v>
       </c>
       <c r="L9">
-        <v>1.022992050759454</v>
+        <v>1.042186831305602</v>
       </c>
       <c r="M9">
-        <v>1.018075628370247</v>
+        <v>1.047762844933195</v>
       </c>
       <c r="N9">
-        <v>1.027886878698392</v>
+        <v>1.042562753037172</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9926243652363542</v>
+        <v>1.033729233830562</v>
       </c>
       <c r="D10">
-        <v>1.013646239200528</v>
+        <v>1.038789854747535</v>
       </c>
       <c r="E10">
-        <v>1.002664572817392</v>
+        <v>1.037565350505097</v>
       </c>
       <c r="F10">
-        <v>0.9953856888602719</v>
+        <v>1.042700141355292</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042645568679342</v>
+        <v>1.040576815809375</v>
       </c>
       <c r="J10">
-        <v>1.021133702482625</v>
+        <v>1.040076831311573</v>
       </c>
       <c r="K10">
-        <v>1.027773401588765</v>
+        <v>1.042225515024016</v>
       </c>
       <c r="L10">
-        <v>1.016985883663034</v>
+        <v>1.041005365573759</v>
       </c>
       <c r="M10">
-        <v>1.009838758923759</v>
+        <v>1.04612197068496</v>
       </c>
       <c r="N10">
-        <v>1.022583829465823</v>
+        <v>1.041553859710515</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9889217900366354</v>
+        <v>1.033057573511303</v>
       </c>
       <c r="D11">
-        <v>1.010801483528916</v>
+        <v>1.03826250254461</v>
       </c>
       <c r="E11">
-        <v>0.999367213192412</v>
+        <v>1.036929835392242</v>
       </c>
       <c r="F11">
-        <v>0.9910603247021874</v>
+        <v>1.041865718314382</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041113572757397</v>
+        <v>1.040349291642533</v>
       </c>
       <c r="J11">
-        <v>1.018762809701848</v>
+        <v>1.03963991989219</v>
       </c>
       <c r="K11">
-        <v>1.025522534560545</v>
+        <v>1.041821238841577</v>
       </c>
       <c r="L11">
-        <v>1.014301072820108</v>
+        <v>1.040493495312337</v>
       </c>
       <c r="M11">
-        <v>1.006152822605723</v>
+        <v>1.045411212021718</v>
       </c>
       <c r="N11">
-        <v>1.020209569745352</v>
+        <v>1.041116327826802</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9875280228125847</v>
+        <v>1.032808094190667</v>
       </c>
       <c r="D12">
-        <v>1.009731399652171</v>
+        <v>1.038066614421357</v>
       </c>
       <c r="E12">
-        <v>0.998127251616207</v>
+        <v>1.036693847741903</v>
       </c>
       <c r="F12">
-        <v>0.9894320935251749</v>
+        <v>1.041555838281635</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040535022322876</v>
+        <v>1.040264539768276</v>
       </c>
       <c r="J12">
-        <v>1.017869761740967</v>
+        <v>1.039477530310691</v>
       </c>
       <c r="K12">
-        <v>1.024674506407814</v>
+        <v>1.041670945053638</v>
       </c>
       <c r="L12">
-        <v>1.013290418694562</v>
+        <v>1.040303320680062</v>
       </c>
       <c r="M12">
-        <v>1.004764597743982</v>
+        <v>1.045147165999383</v>
       </c>
       <c r="N12">
-        <v>1.019315253553933</v>
+        <v>1.040953707633471</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9878278451825999</v>
+        <v>1.032861608121339</v>
       </c>
       <c r="D13">
-        <v>1.009961556167335</v>
+        <v>1.038108633356879</v>
       </c>
       <c r="E13">
-        <v>0.9983939295023599</v>
+        <v>1.036744464681185</v>
       </c>
       <c r="F13">
-        <v>0.9897823556526369</v>
+        <v>1.041622305825531</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040659561265873</v>
+        <v>1.04028273016138</v>
       </c>
       <c r="J13">
-        <v>1.018061896074457</v>
+        <v>1.039512368008654</v>
       </c>
       <c r="K13">
-        <v>1.024856963370332</v>
+        <v>1.041703189355334</v>
       </c>
       <c r="L13">
-        <v>1.013507826530778</v>
+        <v>1.040344115740117</v>
       </c>
       <c r="M13">
-        <v>1.005063261218456</v>
+        <v>1.045203806533145</v>
       </c>
       <c r="N13">
-        <v>1.019507660740214</v>
+        <v>1.040988594804961</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9888069642869931</v>
+        <v>1.033036951368379</v>
       </c>
       <c r="D14">
-        <v>1.010713308319656</v>
+        <v>1.038246310492553</v>
       </c>
       <c r="E14">
-        <v>0.9992650325985232</v>
+        <v>1.036910327131275</v>
       </c>
       <c r="F14">
-        <v>0.9909261836692789</v>
+        <v>1.041840102281109</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041065946260998</v>
+        <v>1.040342290907522</v>
       </c>
       <c r="J14">
-        <v>1.018689247082916</v>
+        <v>1.039626498783995</v>
       </c>
       <c r="K14">
-        <v>1.025452684130243</v>
+        <v>1.041808818113175</v>
       </c>
       <c r="L14">
-        <v>1.014217809727308</v>
+        <v>1.040477776299633</v>
       </c>
       <c r="M14">
-        <v>1.006038468393883</v>
+        <v>1.045389386689416</v>
       </c>
       <c r="N14">
-        <v>1.020135902659063</v>
+        <v>1.041102887659094</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9894077500070434</v>
+        <v>1.03314498681133</v>
       </c>
       <c r="D15">
-        <v>1.01117468633031</v>
+        <v>1.038331137129349</v>
       </c>
       <c r="E15">
-        <v>0.9997997090272384</v>
+        <v>1.037012529866946</v>
       </c>
       <c r="F15">
-        <v>0.9916280282618062</v>
+        <v>1.041974302016362</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041315059887628</v>
+        <v>1.040378956541775</v>
       </c>
       <c r="J15">
-        <v>1.019074114961625</v>
+        <v>1.039696805106524</v>
       </c>
       <c r="K15">
-        <v>1.025818122750975</v>
+        <v>1.041873882568509</v>
       </c>
       <c r="L15">
-        <v>1.014653454913103</v>
+        <v>1.040560123254209</v>
       </c>
       <c r="M15">
-        <v>1.006636757300567</v>
+        <v>1.045503723598107</v>
       </c>
       <c r="N15">
-        <v>1.020521317094305</v>
+        <v>1.041173293824665</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9928675667069953</v>
+        <v>1.033773810467776</v>
       </c>
       <c r="D16">
-        <v>1.013833197940315</v>
+        <v>1.038824852513186</v>
       </c>
       <c r="E16">
-        <v>1.002881330416971</v>
+        <v>1.037607537495085</v>
       </c>
       <c r="F16">
-        <v>0.9956697991393229</v>
+        <v>1.04275552801563</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042745937072547</v>
+        <v>1.040591882288414</v>
       </c>
       <c r="J16">
-        <v>1.021289352073945</v>
+        <v>1.040105813490498</v>
       </c>
       <c r="K16">
-        <v>1.027921144402073</v>
+        <v>1.042252327604162</v>
       </c>
       <c r="L16">
-        <v>1.017162230294717</v>
+        <v>1.041039330654637</v>
       </c>
       <c r="M16">
-        <v>1.010080770237955</v>
+        <v>1.046169136045732</v>
       </c>
       <c r="N16">
-        <v>1.022739700097416</v>
+        <v>1.041582883047459</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9950061409680359</v>
+        <v>1.034168264658005</v>
       </c>
       <c r="D17">
-        <v>1.015477739854503</v>
+        <v>1.039134536042661</v>
       </c>
       <c r="E17">
-        <v>1.004788294165188</v>
+        <v>1.03798089639273</v>
       </c>
       <c r="F17">
-        <v>0.998168138684067</v>
+        <v>1.043245682198515</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04362708457658</v>
+        <v>1.040725018669984</v>
       </c>
       <c r="J17">
-        <v>1.022657587760229</v>
+        <v>1.040362193306577</v>
       </c>
       <c r="K17">
-        <v>1.029219723595967</v>
+        <v>1.04248948871499</v>
       </c>
       <c r="L17">
-        <v>1.018712884911323</v>
+        <v>1.041339847752808</v>
       </c>
       <c r="M17">
-        <v>1.012208363482604</v>
+        <v>1.046586464137044</v>
       </c>
       <c r="N17">
-        <v>1.024109878835313</v>
+        <v>1.041839626952284</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9962424727551079</v>
+        <v>1.034398346739913</v>
       </c>
       <c r="D18">
-        <v>1.016428898497083</v>
+        <v>1.039315165110485</v>
       </c>
       <c r="E18">
-        <v>1.005891487844838</v>
+        <v>1.038198715814017</v>
       </c>
       <c r="F18">
-        <v>0.9996124993863467</v>
+        <v>1.043531621580401</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044135281865518</v>
+        <v>1.04080252125148</v>
       </c>
       <c r="J18">
-        <v>1.02344819040232</v>
+        <v>1.040511670339823</v>
       </c>
       <c r="K18">
-        <v>1.029969948059687</v>
+        <v>1.042627738788852</v>
       </c>
       <c r="L18">
-        <v>1.019609295577872</v>
+        <v>1.04151510652216</v>
       </c>
       <c r="M18">
-        <v>1.013437924949546</v>
+        <v>1.046829860577049</v>
       </c>
       <c r="N18">
-        <v>1.024901604223839</v>
+        <v>1.041989316260063</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9966621859527209</v>
+        <v>1.034476799410652</v>
       </c>
       <c r="D19">
-        <v>1.016751871379401</v>
+        <v>1.039376754250602</v>
       </c>
       <c r="E19">
-        <v>1.006266129879995</v>
+        <v>1.038272994320768</v>
       </c>
       <c r="F19">
-        <v>1.000102844898456</v>
+        <v>1.043629126474535</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044307600610707</v>
+        <v>1.040828921574663</v>
       </c>
       <c r="J19">
-        <v>1.023716519132902</v>
+        <v>1.040562627125729</v>
       </c>
       <c r="K19">
-        <v>1.03022455030723</v>
+        <v>1.042674864582985</v>
       </c>
       <c r="L19">
-        <v>1.019913603434642</v>
+        <v>1.041574860522798</v>
       </c>
       <c r="M19">
-        <v>1.013855269442625</v>
+        <v>1.046912848441777</v>
       </c>
       <c r="N19">
-        <v>1.025170314011997</v>
+        <v>1.042040345410449</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9947778441925574</v>
+        <v>1.034125943083983</v>
       </c>
       <c r="D20">
-        <v>1.015302136564503</v>
+        <v>1.039101310352048</v>
       </c>
       <c r="E20">
-        <v>1.004584643124602</v>
+        <v>1.037940833809989</v>
       </c>
       <c r="F20">
-        <v>0.99790143223533</v>
+        <v>1.043193089089798</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043533144999025</v>
+        <v>1.040710750285986</v>
       </c>
       <c r="J20">
-        <v>1.022511566078697</v>
+        <v>1.040334692899674</v>
       </c>
       <c r="K20">
-        <v>1.029081149121177</v>
+        <v>1.042464052052405</v>
       </c>
       <c r="L20">
-        <v>1.018547353321686</v>
+        <v>1.041307607984394</v>
       </c>
       <c r="M20">
-        <v>1.011981283071989</v>
+        <v>1.046541691270406</v>
       </c>
       <c r="N20">
-        <v>1.023963649786245</v>
+        <v>1.041812087491648</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9885191572972963</v>
+        <v>1.032985317011172</v>
       </c>
       <c r="D21">
-        <v>1.010492312757168</v>
+        <v>1.038205768171716</v>
       </c>
       <c r="E21">
-        <v>0.9990089409315445</v>
+        <v>1.036861482814045</v>
       </c>
       <c r="F21">
-        <v>0.9905899628157548</v>
+        <v>1.041775964957979</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040946542240634</v>
+        <v>1.040324758357764</v>
       </c>
       <c r="J21">
-        <v>1.018504855781198</v>
+        <v>1.039592892910027</v>
       </c>
       <c r="K21">
-        <v>1.025277594740034</v>
+        <v>1.041777716599084</v>
       </c>
       <c r="L21">
-        <v>1.014009113587801</v>
+        <v>1.040438417789407</v>
       </c>
       <c r="M21">
-        <v>1.005751831523023</v>
+        <v>1.045334739033908</v>
       </c>
       <c r="N21">
-        <v>1.019951249500547</v>
+        <v>1.041069234060931</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9844766112252479</v>
+        <v>1.032268190186737</v>
       </c>
       <c r="D22">
-        <v>1.007390149479653</v>
+        <v>1.037642670496048</v>
       </c>
       <c r="E22">
-        <v>0.9954149763990808</v>
+        <v>1.036183262603815</v>
       </c>
       <c r="F22">
-        <v>0.9858672111110564</v>
+        <v>1.040885319827425</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039265019497537</v>
+        <v>1.04008068555062</v>
       </c>
       <c r="J22">
-        <v>1.015913592062186</v>
+        <v>1.039125908123932</v>
       </c>
       <c r="K22">
-        <v>1.022816614023647</v>
+        <v>1.041345451951164</v>
       </c>
       <c r="L22">
-        <v>1.011077814009059</v>
+        <v>1.039891673328912</v>
       </c>
       <c r="M22">
-        <v>1.001723938295222</v>
+        <v>1.044575656312803</v>
       </c>
       <c r="N22">
-        <v>1.017356305889832</v>
+        <v>1.040601586102875</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9866302251472803</v>
+        <v>1.032648349961956</v>
       </c>
       <c r="D23">
-        <v>1.009042331192969</v>
+        <v>1.037941182420188</v>
       </c>
       <c r="E23">
-        <v>0.9973288937149202</v>
+        <v>1.036542761012983</v>
       </c>
       <c r="F23">
-        <v>0.9883832463721078</v>
+        <v>1.041357434300911</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040161830253213</v>
+        <v>1.040210204405767</v>
       </c>
       <c r="J23">
-        <v>1.017294348727205</v>
+        <v>1.039373521127186</v>
       </c>
       <c r="K23">
-        <v>1.024128048742458</v>
+        <v>1.041574673586707</v>
       </c>
       <c r="L23">
-        <v>1.012639408902115</v>
+        <v>1.040181536613262</v>
       </c>
       <c r="M23">
-        <v>1.003870160836155</v>
+        <v>1.04497808203865</v>
       </c>
       <c r="N23">
-        <v>1.01873902338769</v>
+        <v>1.040849550744996</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9948810357825227</v>
+        <v>1.034145066370162</v>
       </c>
       <c r="D24">
-        <v>1.015381509030707</v>
+        <v>1.039116323624043</v>
       </c>
       <c r="E24">
-        <v>1.004676692338408</v>
+        <v>1.03795893622598</v>
       </c>
       <c r="F24">
-        <v>0.9980219850953044</v>
+        <v>1.04321685352547</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043575610019177</v>
+        <v>1.040717198029103</v>
       </c>
       <c r="J24">
-        <v>1.022577570012866</v>
+        <v>1.040347119350459</v>
       </c>
       <c r="K24">
-        <v>1.029143787209691</v>
+        <v>1.042475546038556</v>
       </c>
       <c r="L24">
-        <v>1.018622174773594</v>
+        <v>1.041322175833683</v>
       </c>
       <c r="M24">
-        <v>1.01208392616315</v>
+        <v>1.046561922275323</v>
       </c>
       <c r="N24">
-        <v>1.024029747453571</v>
+        <v>1.041824531589419</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004024902801979</v>
+        <v>1.035882065967686</v>
       </c>
       <c r="D25">
-        <v>1.022423207775904</v>
+        <v>1.04047984770424</v>
       </c>
       <c r="E25">
-        <v>1.012848789543902</v>
+        <v>1.039604112835807</v>
       </c>
       <c r="F25">
-        <v>1.008705978176532</v>
+        <v>1.045376209244144</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047312484568092</v>
+        <v>1.041299509973472</v>
       </c>
       <c r="J25">
-        <v>1.028417568012363</v>
+        <v>1.041474377107071</v>
       </c>
       <c r="K25">
-        <v>1.034683126280687</v>
+        <v>1.043517741824863</v>
       </c>
       <c r="L25">
-        <v>1.025250866040885</v>
+        <v>1.042644734670666</v>
       </c>
       <c r="M25">
-        <v>1.021170631797372</v>
+        <v>1.048398944249698</v>
       </c>
       <c r="N25">
-        <v>1.029878038920085</v>
+        <v>1.042953390181344</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_117/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_117/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037267621666352</v>
+        <v>1.011007125823448</v>
       </c>
       <c r="D2">
-        <v>1.041567248677424</v>
+        <v>1.02781078055819</v>
       </c>
       <c r="E2">
-        <v>1.040917735927591</v>
+        <v>1.019110217977471</v>
       </c>
       <c r="F2">
-        <v>1.047099851320691</v>
+        <v>1.016868517900088</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041759102693556</v>
+        <v>1.050127390229054</v>
       </c>
       <c r="J2">
-        <v>1.042371420824399</v>
+        <v>1.032863526985525</v>
       </c>
       <c r="K2">
-        <v>1.04434639827114</v>
+        <v>1.038895800483312</v>
       </c>
       <c r="L2">
-        <v>1.043698724709446</v>
+        <v>1.030309585404955</v>
       </c>
       <c r="M2">
-        <v>1.049863434889588</v>
+        <v>1.028097745062345</v>
       </c>
       <c r="N2">
-        <v>1.043851707803643</v>
+        <v>1.034330311664947</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038273741405853</v>
+        <v>1.015912637597296</v>
       </c>
       <c r="D3">
-        <v>1.042356710996973</v>
+        <v>1.031600895808834</v>
       </c>
       <c r="E3">
-        <v>1.041872374193163</v>
+        <v>1.023520750007426</v>
       </c>
       <c r="F3">
-        <v>1.04835217711232</v>
+        <v>1.022606943490167</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04208999153714</v>
+        <v>1.052082071684096</v>
       </c>
       <c r="J3">
-        <v>1.043021564316282</v>
+        <v>1.035978711462759</v>
       </c>
       <c r="K3">
-        <v>1.044946570257686</v>
+        <v>1.041844793770719</v>
       </c>
       <c r="L3">
-        <v>1.044463505605055</v>
+        <v>1.033861270062183</v>
       </c>
       <c r="M3">
-        <v>1.050926393851624</v>
+        <v>1.032958510148491</v>
       </c>
       <c r="N3">
-        <v>1.044502774573857</v>
+        <v>1.037449920061455</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038924809497708</v>
+        <v>1.019015677439628</v>
       </c>
       <c r="D4">
-        <v>1.042867503925206</v>
+        <v>1.034000322687086</v>
       </c>
       <c r="E4">
-        <v>1.042490473463431</v>
+        <v>1.026315716531767</v>
       </c>
       <c r="F4">
-        <v>1.049162899242599</v>
+        <v>1.026238897194549</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042302795913146</v>
+        <v>1.053307665324449</v>
       </c>
       <c r="J4">
-        <v>1.043441700525213</v>
+        <v>1.03794515844499</v>
       </c>
       <c r="K4">
-        <v>1.04533422457347</v>
+        <v>1.043705006629845</v>
       </c>
       <c r="L4">
-        <v>1.044958134474317</v>
+        <v>1.036106578916587</v>
       </c>
       <c r="M4">
-        <v>1.051614025815972</v>
+        <v>1.036030629093899</v>
       </c>
       <c r="N4">
-        <v>1.044923507424394</v>
+        <v>1.039419159623956</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039198528522738</v>
+        <v>1.02030382967094</v>
       </c>
       <c r="D5">
-        <v>1.043082230735498</v>
+        <v>1.034996803959328</v>
       </c>
       <c r="E5">
-        <v>1.042750414120897</v>
+        <v>1.027477151259255</v>
       </c>
       <c r="F5">
-        <v>1.049503819679426</v>
+        <v>1.027747154964115</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042391946892639</v>
+        <v>1.053813800911593</v>
       </c>
       <c r="J5">
-        <v>1.043618193947927</v>
+        <v>1.038760468147611</v>
       </c>
       <c r="K5">
-        <v>1.045497027336548</v>
+        <v>1.044475943080044</v>
       </c>
       <c r="L5">
-        <v>1.04516601985664</v>
+        <v>1.037038307900202</v>
       </c>
       <c r="M5">
-        <v>1.051903065519271</v>
+        <v>1.037305341131004</v>
       </c>
       <c r="N5">
-        <v>1.045100251488012</v>
+        <v>1.040235627159871</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039244487740846</v>
+        <v>1.020519175145016</v>
       </c>
       <c r="D6">
-        <v>1.043118283679765</v>
+        <v>1.035163412764091</v>
       </c>
       <c r="E6">
-        <v>1.04279406467054</v>
+        <v>1.027671380751036</v>
       </c>
       <c r="F6">
-        <v>1.049561067195558</v>
+        <v>1.027999329456863</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042406897437425</v>
+        <v>1.05389825740781</v>
       </c>
       <c r="J6">
-        <v>1.043647820234926</v>
+        <v>1.038896706250562</v>
       </c>
       <c r="K6">
-        <v>1.045524352830787</v>
+        <v>1.044604746901782</v>
       </c>
       <c r="L6">
-        <v>1.045200921402188</v>
+        <v>1.037194046787987</v>
       </c>
       <c r="M6">
-        <v>1.051951594188922</v>
+        <v>1.03751840489032</v>
       </c>
       <c r="N6">
-        <v>1.045129919847738</v>
+        <v>1.040372058736555</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038928466905292</v>
+        <v>1.01903295324128</v>
       </c>
       <c r="D7">
-        <v>1.042870373157369</v>
+        <v>1.034013685216664</v>
       </c>
       <c r="E7">
-        <v>1.042493946443204</v>
+        <v>1.02633128830161</v>
       </c>
       <c r="F7">
-        <v>1.049167454272027</v>
+        <v>1.026259122702709</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042303988378863</v>
+        <v>1.053314463740412</v>
       </c>
       <c r="J7">
-        <v>1.043444059357183</v>
+        <v>1.037956096855045</v>
       </c>
       <c r="K7">
-        <v>1.045336400608875</v>
+        <v>1.043715351023435</v>
       </c>
       <c r="L7">
-        <v>1.044960912471613</v>
+        <v>1.036119076070269</v>
       </c>
       <c r="M7">
-        <v>1.051617888137871</v>
+        <v>1.036047727002712</v>
       </c>
       <c r="N7">
-        <v>1.044925869606177</v>
+        <v>1.039430113567808</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037607636043433</v>
+        <v>1.012680114435049</v>
       </c>
       <c r="D8">
-        <v>1.041834059565744</v>
+        <v>1.029102932178581</v>
       </c>
       <c r="E8">
-        <v>1.04124028059802</v>
+        <v>1.020613318338032</v>
       </c>
       <c r="F8">
-        <v>1.047523001869569</v>
+        <v>1.018825167310165</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041871197839424</v>
+        <v>1.050796280437333</v>
       </c>
       <c r="J8">
-        <v>1.04259125367808</v>
+        <v>1.033926780264459</v>
       </c>
       <c r="K8">
-        <v>1.044549373405865</v>
+        <v>1.039902603858201</v>
       </c>
       <c r="L8">
-        <v>1.043957234629909</v>
+        <v>1.031521124762369</v>
       </c>
       <c r="M8">
-        <v>1.050222703251344</v>
+        <v>1.029756037389989</v>
       </c>
       <c r="N8">
-        <v>1.044071852845191</v>
+        <v>1.035395074885494</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035280474948871</v>
+        <v>1.000908514435677</v>
       </c>
       <c r="D9">
-        <v>1.040007642124744</v>
+        <v>1.020021438853258</v>
       </c>
       <c r="E9">
-        <v>1.039034119551986</v>
+        <v>1.010060110139017</v>
       </c>
       <c r="F9">
-        <v>1.044628158790846</v>
+        <v>1.005064183124376</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041098590755479</v>
+        <v>1.046044899112786</v>
       </c>
       <c r="J9">
-        <v>1.04108429392576</v>
+        <v>1.026429231456645</v>
       </c>
       <c r="K9">
-        <v>1.043157201643976</v>
+        <v>1.032797824190794</v>
       </c>
       <c r="L9">
-        <v>1.042186831305602</v>
+        <v>1.022992050759454</v>
       </c>
       <c r="M9">
-        <v>1.047762844933195</v>
+        <v>1.018075628370247</v>
       </c>
       <c r="N9">
-        <v>1.042562753037172</v>
+        <v>1.027886878698392</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033729233830562</v>
+        <v>0.9926243652363544</v>
       </c>
       <c r="D10">
-        <v>1.038789854747535</v>
+        <v>1.013646239200528</v>
       </c>
       <c r="E10">
-        <v>1.037565350505097</v>
+        <v>1.002664572817392</v>
       </c>
       <c r="F10">
-        <v>1.042700141355292</v>
+        <v>0.9953856888602723</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040576815809375</v>
+        <v>1.042645568679342</v>
       </c>
       <c r="J10">
-        <v>1.040076831311573</v>
+        <v>1.021133702482625</v>
       </c>
       <c r="K10">
-        <v>1.042225515024016</v>
+        <v>1.027773401588765</v>
       </c>
       <c r="L10">
-        <v>1.041005365573759</v>
+        <v>1.016985883663035</v>
       </c>
       <c r="M10">
-        <v>1.04612197068496</v>
+        <v>1.00983875892376</v>
       </c>
       <c r="N10">
-        <v>1.041553859710515</v>
+        <v>1.022583829465824</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033057573511303</v>
+        <v>0.9889217900366337</v>
       </c>
       <c r="D11">
-        <v>1.03826250254461</v>
+        <v>1.010801483528914</v>
       </c>
       <c r="E11">
-        <v>1.036929835392242</v>
+        <v>0.9993672131924103</v>
       </c>
       <c r="F11">
-        <v>1.041865718314382</v>
+        <v>0.9910603247021859</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040349291642533</v>
+        <v>1.041113572757396</v>
       </c>
       <c r="J11">
-        <v>1.03963991989219</v>
+        <v>1.018762809701846</v>
       </c>
       <c r="K11">
-        <v>1.041821238841577</v>
+        <v>1.025522534560543</v>
       </c>
       <c r="L11">
-        <v>1.040493495312337</v>
+        <v>1.014301072820107</v>
       </c>
       <c r="M11">
-        <v>1.045411212021718</v>
+        <v>1.006152822605721</v>
       </c>
       <c r="N11">
-        <v>1.041116327826802</v>
+        <v>1.020209569745351</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032808094190667</v>
+        <v>0.9875280228125838</v>
       </c>
       <c r="D12">
-        <v>1.038066614421357</v>
+        <v>1.00973139965217</v>
       </c>
       <c r="E12">
-        <v>1.036693847741903</v>
+        <v>0.9981272516162061</v>
       </c>
       <c r="F12">
-        <v>1.041555838281635</v>
+        <v>0.9894320935251744</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040264539768276</v>
+        <v>1.040535022322876</v>
       </c>
       <c r="J12">
-        <v>1.039477530310691</v>
+        <v>1.017869761740966</v>
       </c>
       <c r="K12">
-        <v>1.041670945053638</v>
+        <v>1.024674506407813</v>
       </c>
       <c r="L12">
-        <v>1.040303320680062</v>
+        <v>1.013290418694561</v>
       </c>
       <c r="M12">
-        <v>1.045147165999383</v>
+        <v>1.004764597743982</v>
       </c>
       <c r="N12">
-        <v>1.040953707633471</v>
+        <v>1.019315253553932</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032861608121339</v>
+        <v>0.9878278451825993</v>
       </c>
       <c r="D13">
-        <v>1.038108633356879</v>
+        <v>1.009961556167334</v>
       </c>
       <c r="E13">
-        <v>1.036744464681185</v>
+        <v>0.9983939295023592</v>
       </c>
       <c r="F13">
-        <v>1.041622305825531</v>
+        <v>0.9897823556526358</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04028273016138</v>
+        <v>1.040659561265872</v>
       </c>
       <c r="J13">
-        <v>1.039512368008654</v>
+        <v>1.018061896074456</v>
       </c>
       <c r="K13">
-        <v>1.041703189355334</v>
+        <v>1.024856963370331</v>
       </c>
       <c r="L13">
-        <v>1.040344115740117</v>
+        <v>1.013507826530777</v>
       </c>
       <c r="M13">
-        <v>1.045203806533145</v>
+        <v>1.005063261218455</v>
       </c>
       <c r="N13">
-        <v>1.040988594804961</v>
+        <v>1.019507660740213</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033036951368379</v>
+        <v>0.9888069642869924</v>
       </c>
       <c r="D14">
-        <v>1.038246310492553</v>
+        <v>1.010713308319656</v>
       </c>
       <c r="E14">
-        <v>1.036910327131275</v>
+        <v>0.999265032598523</v>
       </c>
       <c r="F14">
-        <v>1.041840102281109</v>
+        <v>0.9909261836692785</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040342290907522</v>
+        <v>1.041065946260998</v>
       </c>
       <c r="J14">
-        <v>1.039626498783995</v>
+        <v>1.018689247082915</v>
       </c>
       <c r="K14">
-        <v>1.041808818113175</v>
+        <v>1.025452684130243</v>
       </c>
       <c r="L14">
-        <v>1.040477776299633</v>
+        <v>1.014217809727308</v>
       </c>
       <c r="M14">
-        <v>1.045389386689416</v>
+        <v>1.006038468393883</v>
       </c>
       <c r="N14">
-        <v>1.041102887659094</v>
+        <v>1.020135902659062</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03314498681133</v>
+        <v>0.9894077500070428</v>
       </c>
       <c r="D15">
-        <v>1.038331137129349</v>
+        <v>1.01117468633031</v>
       </c>
       <c r="E15">
-        <v>1.037012529866946</v>
+        <v>0.9997997090272378</v>
       </c>
       <c r="F15">
-        <v>1.041974302016362</v>
+        <v>0.9916280282618057</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040378956541775</v>
+        <v>1.041315059887628</v>
       </c>
       <c r="J15">
-        <v>1.039696805106524</v>
+        <v>1.019074114961625</v>
       </c>
       <c r="K15">
-        <v>1.041873882568509</v>
+        <v>1.025818122750975</v>
       </c>
       <c r="L15">
-        <v>1.040560123254209</v>
+        <v>1.014653454913103</v>
       </c>
       <c r="M15">
-        <v>1.045503723598107</v>
+        <v>1.006636757300566</v>
       </c>
       <c r="N15">
-        <v>1.041173293824665</v>
+        <v>1.020521317094305</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033773810467776</v>
+        <v>0.9928675667069956</v>
       </c>
       <c r="D16">
-        <v>1.038824852513186</v>
+        <v>1.013833197940315</v>
       </c>
       <c r="E16">
-        <v>1.037607537495085</v>
+        <v>1.002881330416971</v>
       </c>
       <c r="F16">
-        <v>1.04275552801563</v>
+        <v>0.995669799139323</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040591882288414</v>
+        <v>1.042745937072547</v>
       </c>
       <c r="J16">
-        <v>1.040105813490498</v>
+        <v>1.021289352073945</v>
       </c>
       <c r="K16">
-        <v>1.042252327604162</v>
+        <v>1.027921144402074</v>
       </c>
       <c r="L16">
-        <v>1.041039330654637</v>
+        <v>1.017162230294717</v>
       </c>
       <c r="M16">
-        <v>1.046169136045732</v>
+        <v>1.010080770237955</v>
       </c>
       <c r="N16">
-        <v>1.041582883047459</v>
+        <v>1.022739700097417</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034168264658005</v>
+        <v>0.9950061409680361</v>
       </c>
       <c r="D17">
-        <v>1.039134536042661</v>
+        <v>1.015477739854504</v>
       </c>
       <c r="E17">
-        <v>1.03798089639273</v>
+        <v>1.004788294165188</v>
       </c>
       <c r="F17">
-        <v>1.043245682198515</v>
+        <v>0.9981681386840668</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040725018669984</v>
+        <v>1.04362708457658</v>
       </c>
       <c r="J17">
-        <v>1.040362193306577</v>
+        <v>1.022657587760229</v>
       </c>
       <c r="K17">
-        <v>1.04248948871499</v>
+        <v>1.029219723595967</v>
       </c>
       <c r="L17">
-        <v>1.041339847752808</v>
+        <v>1.018712884911323</v>
       </c>
       <c r="M17">
-        <v>1.046586464137044</v>
+        <v>1.012208363482604</v>
       </c>
       <c r="N17">
-        <v>1.041839626952284</v>
+        <v>1.024109878835313</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034398346739913</v>
+        <v>0.9962424727551077</v>
       </c>
       <c r="D18">
-        <v>1.039315165110485</v>
+        <v>1.016428898497083</v>
       </c>
       <c r="E18">
-        <v>1.038198715814017</v>
+        <v>1.005891487844838</v>
       </c>
       <c r="F18">
-        <v>1.043531621580401</v>
+        <v>0.9996124993863466</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04080252125148</v>
+        <v>1.044135281865518</v>
       </c>
       <c r="J18">
-        <v>1.040511670339823</v>
+        <v>1.02344819040232</v>
       </c>
       <c r="K18">
-        <v>1.042627738788852</v>
+        <v>1.029969948059687</v>
       </c>
       <c r="L18">
-        <v>1.04151510652216</v>
+        <v>1.019609295577872</v>
       </c>
       <c r="M18">
-        <v>1.046829860577049</v>
+        <v>1.013437924949545</v>
       </c>
       <c r="N18">
-        <v>1.041989316260063</v>
+        <v>1.024901604223839</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034476799410652</v>
+        <v>0.9966621859527208</v>
       </c>
       <c r="D19">
-        <v>1.039376754250602</v>
+        <v>1.016751871379401</v>
       </c>
       <c r="E19">
-        <v>1.038272994320768</v>
+        <v>1.006266129879995</v>
       </c>
       <c r="F19">
-        <v>1.043629126474535</v>
+        <v>1.000102844898455</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040828921574663</v>
+        <v>1.044307600610707</v>
       </c>
       <c r="J19">
-        <v>1.040562627125729</v>
+        <v>1.023716519132901</v>
       </c>
       <c r="K19">
-        <v>1.042674864582985</v>
+        <v>1.03022455030723</v>
       </c>
       <c r="L19">
-        <v>1.041574860522798</v>
+        <v>1.019913603434641</v>
       </c>
       <c r="M19">
-        <v>1.046912848441777</v>
+        <v>1.013855269442625</v>
       </c>
       <c r="N19">
-        <v>1.042040345410449</v>
+        <v>1.025170314011997</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034125943083983</v>
+        <v>0.9947778441925562</v>
       </c>
       <c r="D20">
-        <v>1.039101310352048</v>
+        <v>1.015302136564501</v>
       </c>
       <c r="E20">
-        <v>1.037940833809989</v>
+        <v>1.004584643124601</v>
       </c>
       <c r="F20">
-        <v>1.043193089089798</v>
+        <v>0.9979014322353281</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040710750285986</v>
+        <v>1.043533144999024</v>
       </c>
       <c r="J20">
-        <v>1.040334692899674</v>
+        <v>1.022511566078695</v>
       </c>
       <c r="K20">
-        <v>1.042464052052405</v>
+        <v>1.029081149121175</v>
       </c>
       <c r="L20">
-        <v>1.041307607984394</v>
+        <v>1.018547353321684</v>
       </c>
       <c r="M20">
-        <v>1.046541691270406</v>
+        <v>1.011981283071987</v>
       </c>
       <c r="N20">
-        <v>1.041812087491648</v>
+        <v>1.023963649786243</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032985317011172</v>
+        <v>0.9885191572972968</v>
       </c>
       <c r="D21">
-        <v>1.038205768171716</v>
+        <v>1.010492312757169</v>
       </c>
       <c r="E21">
-        <v>1.036861482814045</v>
+        <v>0.9990089409315451</v>
       </c>
       <c r="F21">
-        <v>1.041775964957979</v>
+        <v>0.9905899628157556</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040324758357764</v>
+        <v>1.040946542240634</v>
       </c>
       <c r="J21">
-        <v>1.039592892910027</v>
+        <v>1.018504855781199</v>
       </c>
       <c r="K21">
-        <v>1.041777716599084</v>
+        <v>1.025277594740034</v>
       </c>
       <c r="L21">
-        <v>1.040438417789407</v>
+        <v>1.014009113587802</v>
       </c>
       <c r="M21">
-        <v>1.045334739033908</v>
+        <v>1.005751831523024</v>
       </c>
       <c r="N21">
-        <v>1.041069234060931</v>
+        <v>1.019951249500548</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032268190186737</v>
+        <v>0.9844766112252469</v>
       </c>
       <c r="D22">
-        <v>1.037642670496048</v>
+        <v>1.007390149479652</v>
       </c>
       <c r="E22">
-        <v>1.036183262603815</v>
+        <v>0.9954149763990803</v>
       </c>
       <c r="F22">
-        <v>1.040885319827425</v>
+        <v>0.9858672111110558</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04008068555062</v>
+        <v>1.039265019497537</v>
       </c>
       <c r="J22">
-        <v>1.039125908123932</v>
+        <v>1.015913592062185</v>
       </c>
       <c r="K22">
-        <v>1.041345451951164</v>
+        <v>1.022816614023646</v>
       </c>
       <c r="L22">
-        <v>1.039891673328912</v>
+        <v>1.011077814009058</v>
       </c>
       <c r="M22">
-        <v>1.044575656312803</v>
+        <v>1.001723938295221</v>
       </c>
       <c r="N22">
-        <v>1.040601586102875</v>
+        <v>1.017356305889831</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032648349961956</v>
+        <v>0.9866302251472798</v>
       </c>
       <c r="D23">
-        <v>1.037941182420188</v>
+        <v>1.009042331192969</v>
       </c>
       <c r="E23">
-        <v>1.036542761012983</v>
+        <v>0.9973288937149198</v>
       </c>
       <c r="F23">
-        <v>1.041357434300911</v>
+        <v>0.9883832463721078</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040210204405767</v>
+        <v>1.040161830253213</v>
       </c>
       <c r="J23">
-        <v>1.039373521127186</v>
+        <v>1.017294348727204</v>
       </c>
       <c r="K23">
-        <v>1.041574673586707</v>
+        <v>1.024128048742458</v>
       </c>
       <c r="L23">
-        <v>1.040181536613262</v>
+        <v>1.012639408902115</v>
       </c>
       <c r="M23">
-        <v>1.04497808203865</v>
+        <v>1.003870160836155</v>
       </c>
       <c r="N23">
-        <v>1.040849550744996</v>
+        <v>1.01873902338769</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034145066370162</v>
+        <v>0.9948810357825236</v>
       </c>
       <c r="D24">
-        <v>1.039116323624043</v>
+        <v>1.015381509030707</v>
       </c>
       <c r="E24">
-        <v>1.03795893622598</v>
+        <v>1.004676692338408</v>
       </c>
       <c r="F24">
-        <v>1.04321685352547</v>
+        <v>0.9980219850953052</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040717198029103</v>
+        <v>1.043575610019177</v>
       </c>
       <c r="J24">
-        <v>1.040347119350459</v>
+        <v>1.022577570012867</v>
       </c>
       <c r="K24">
-        <v>1.042475546038556</v>
+        <v>1.029143787209692</v>
       </c>
       <c r="L24">
-        <v>1.041322175833683</v>
+        <v>1.018622174773594</v>
       </c>
       <c r="M24">
-        <v>1.046561922275323</v>
+        <v>1.012083926163151</v>
       </c>
       <c r="N24">
-        <v>1.041824531589419</v>
+        <v>1.024029747453572</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035882065967686</v>
+        <v>1.004024902801979</v>
       </c>
       <c r="D25">
-        <v>1.04047984770424</v>
+        <v>1.022423207775904</v>
       </c>
       <c r="E25">
-        <v>1.039604112835807</v>
+        <v>1.012848789543901</v>
       </c>
       <c r="F25">
-        <v>1.045376209244144</v>
+        <v>1.008705978176532</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041299509973472</v>
+        <v>1.047312484568091</v>
       </c>
       <c r="J25">
-        <v>1.041474377107071</v>
+        <v>1.028417568012363</v>
       </c>
       <c r="K25">
-        <v>1.043517741824863</v>
+        <v>1.034683126280687</v>
       </c>
       <c r="L25">
-        <v>1.042644734670666</v>
+        <v>1.025250866040884</v>
       </c>
       <c r="M25">
-        <v>1.048398944249698</v>
+        <v>1.021170631797372</v>
       </c>
       <c r="N25">
-        <v>1.042953390181344</v>
+        <v>1.029878038920084</v>
       </c>
     </row>
   </sheetData>
